--- a/biology/Médecine/CIM-10_Chapitre_06___Maladies_du_système_nerveux/CIM-10_Chapitre_06___Maladies_du_système_nerveux.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_06___Maladies_du_système_nerveux/CIM-10_Chapitre_06___Maladies_du_système_nerveux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre VI de la classification internationale des maladies[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre VI de la classification internationale des maladies.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes du chapitre 06</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CIM-10 Chapitre 06: Maladies du système nerveux (G00-G99)
-(G00-G09) Maladies inflammatoires du système nerveux central
-(G00) Méningite bactérienne, non classée ailleurs
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CIM-10 Chapitre 06: Maladies du système nerveux (G00-G99)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(G00-G09) Maladies inflammatoires du système nerveux central</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(G00) Méningite bactérienne, non classée ailleurs
 (G01) Méningite au cours d'affections bactériennes classées ailleurs
 (G02) Méningite au cours d'autres maladies infectieuses et parasitaires classées ailleurs
 (G03) Méningite due à des causes autres et non précisées
@@ -524,38 +573,242 @@
 (G06) Abcès et granulome intracrâniens et intrarachidiens
 (G07) Abcès et granulome intracrâniens et intrarachidiens au cours d'affections classées ailleurs
 (G08) Phlébite et thrombophlébite intracrâniennes et intrarachidiennes
-(G09) Séquelles d'affections inflammatoires du système nerveux central
-(G10-G13) Affections dégénératives systémiques affectant principalement le système nerveux central
-(G10) Chorée de Huntington
+(G09) Séquelles d'affections inflammatoires du système nerveux central</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(G10-G13) Affections dégénératives systémiques affectant principalement le système nerveux central</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(G10) Chorée de Huntington
 (G11) Ataxie héréditaire
 (G12) Amyotrophie spinale et syndromes apparentés
-(G13) Affections dégénératives systémiques affectant principalement le système nerveux central au cours d'affections classées ailleurs
-(G20-G26) Syndromes extrapyramidaux et troubles de la motricité
-(G20) Maladie de Parkinson
+(G13) Affections dégénératives systémiques affectant principalement le système nerveux central au cours d'affections classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(G20-G26) Syndromes extrapyramidaux et troubles de la motricité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(G20) Maladie de Parkinson
 (G21) Syndrome parkinsonien secondaire
 (G22) Syndrome parkinsonien au cours de maladies classées ailleurs
 (G23) Autres maladies dégénératives des noyaux gris centraux
 (G24) Dystonie
 (G25) Autres syndromes extrapyramidaux et troubles de la motricité
-(G26) Syndromes extrapyramidaux et troubles de la motricité au cours d'affections classées ailleurs
-(G30-G32) Autres affections dégénératives du système nerveux
-(G30) Maladie d'Alzheimer
+(G26) Syndromes extrapyramidaux et troubles de la motricité au cours d'affections classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(G30-G32) Autres affections dégénératives du système nerveux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(G30) Maladie d'Alzheimer
 (G31) Autres affections dégénératives du système nerveux, non classées ailleurs
-(G32) Autres affections dégénératives du système nerveux au cours d'affections classées ailleurs
-(G35-G37) Maladies démyélinisantes du système nerveux central
-(G35) Sclérose en plaques
+(G32) Autres affections dégénératives du système nerveux au cours d'affections classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(G35-G37) Maladies démyélinisantes du système nerveux central</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(G35) Sclérose en plaques
 (G36) Autres affections démyélinisantes aiguës disséminées
-(G37) Autres affections démyélinisantes du système nerveux central
-(G40-G47) Affections épisodiques et paroxystiques
-(G40) Épilepsie
+(G37) Autres affections démyélinisantes du système nerveux central</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(G40-G47) Affections épisodiques et paroxystiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(G40) Épilepsie
 (G41) État de mal épileptique
 (G43) Migraine
 (G44) Autres syndromes d'algies céphaliques
 (G45) Accidents ischémiques cérébraux transitoires et syndromes apparentés
 (G46) Syndromes vasculaires cérébraux au cours de maladies cérébrovasculaires
-(G47) Troubles du sommeil
-(G50-G59) Affections des nerfs et des racines et plexus nerveux
-(G50) Affections du nerf trijumeau
+(G47) Troubles du sommeil</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(G50-G59) Affections des nerfs et des racines et plexus nerveux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(G50) Affections du nerf trijumeau
 (G51) Affections du nerf facial
 (G52) Affections des autres nerfs crâniens
 (G53) Affections des nerfs crâniens au cours de maladies classées ailleurs
@@ -564,25 +817,161 @@
 (G56) Mononévrite du membre supérieur
 (G57) Mononévrite du membre inférieur
 (G58) Autres mononévrites
-(G59) Mononévrite au cours de maladies classées ailleurs
-(G60-G64) Polynévrites et autres affections du système nerveux périphérique
-(G60) Neuropathie héréditaire et idiopathique
+(G59) Mononévrite au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(G60-G64) Polynévrites et autres affections du système nerveux périphérique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(G60) Neuropathie héréditaire et idiopathique
 (G61) Polynévrites inflammatoires
 (G62) Autres polynévrites
 (G63) Polynévrite au cours de maladies classées ailleurs
-(G64) Autres affections du système nerveux périphérique
-(G70-G73) Affections musculaires et neuro-musculaires
-(G70) Myasthénie et autres affections neuro-musculaires
+(G64) Autres affections du système nerveux périphérique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(G70-G73) Affections musculaires et neuro-musculaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(G70) Myasthénie et autres affections neuro-musculaires
 (G71) Affections musculaires primitives
 (G72) Autres myopathies
-(G73) Affections musculaires et neuro-musculaires au cours de maladies classées ailleurs
-(G80-G83) Paralysies cérébrales et autres syndromes paralytiques
-(G80) Paralysie cérébrale infantile
+(G73) Affections musculaires et neuro-musculaires au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(G80-G83) Paralysies cérébrales et autres syndromes paralytiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(G80) Paralysie cérébrale infantile
 (G81) Hémiplégie
 (G82) Paraplégie et tétraplégie
-(G83) Autres syndromes paralytiques
-(G90-G99) Autres affections du système nerveux
-(G90) Affections du système nerveux autonome
+(G83) Autres syndromes paralytiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_06_:_Maladies_du_système_nerveux</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_06_:_Maladies_du_syst%C3%A8me_nerveux</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(G90-G99) Autres affections du système nerveux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(G90) Affections du système nerveux autonome
 (G91) Hydrocéphalie
 (G92) Encéphalopathie toxique
 (G93) Autres affections du cerveau
